--- a/Бронь 13.01.2025.xlsx
+++ b/Бронь 13.01.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\PycharmProjects\ParseXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948204CD-34F9-48FF-9DF5-72B762C85391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79BAE94-552A-4B9F-95C2-92866B59B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,10 +225,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +640,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -660,31 +660,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -734,7 +734,7 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>45651</v>
       </c>
       <c r="F5" s="3" t="s">

--- a/Бронь 13.01.2025.xlsx
+++ b/Бронь 13.01.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\PycharmProjects\ParseXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79BAE94-552A-4B9F-95C2-92866B59B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD08AF-544E-45FC-98A3-EF3D304BD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,6 +163,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -225,10 +231,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +646,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -660,31 +666,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -734,10 +740,10 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>45651</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -769,10 +775,10 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -804,10 +810,10 @@
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -839,10 +845,10 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -874,10 +880,10 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -909,10 +915,10 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -936,6 +942,7 @@
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Бронь 13.01.2025.xlsx
+++ b/Бронь 13.01.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\PycharmProjects\ParseXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD08AF-544E-45FC-98A3-EF3D304BD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3DFEE-B72C-44E0-B8CE-928BDBB97139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,10 +231,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +646,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -666,31 +666,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -740,10 +740,10 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>45651</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -775,10 +775,10 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -810,10 +810,10 @@
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -845,10 +845,10 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -880,10 +880,10 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -915,10 +915,10 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
